--- a/result/air_single.xlsx
+++ b/result/air_single.xlsx
@@ -77,9 +77,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
@@ -489,8 +489,8 @@
   <sheetPr/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1386,13 +1386,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="B2:C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
@@ -1402,19 +1402,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>0.7031</v>
+      </c>
+      <c r="C2">
+        <v>0.5517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>16</v>
+      <c r="B3">
+        <v>0.6884</v>
+      </c>
+      <c r="C3">
+        <v>0.522</v>
       </c>
     </row>
   </sheetData>
